--- a/Информация о проходах/Романов Михаил Алексеевич.xlsx
+++ b/Информация о проходах/Романов Михаил Алексеевич.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -517,6 +517,166 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Романов Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2024-06-20 12:32:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Романов Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2024-06-20 13:38:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Романов Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2024-06-24 15:13:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Романов Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2024-06-25 14:03:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Романов Михаил Алексеевич</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Учредитель</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Турникеты № 1+2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>КПП производства</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2024-06-25 14:49:08</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
